--- a/VersionRecords/Version 5.0.2.6 20161009/版本Bug和特性计划及评审表v5.0.2.6_架构组.xlsx
+++ b/VersionRecords/Version 5.0.2.6 20161009/版本Bug和特性计划及评审表v5.0.2.6_架构组.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="480" yWindow="3285" windowWidth="25125" windowHeight="11760"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>No</t>
   </si>
@@ -109,12 +109,20 @@
     <t>房源实时同步(BS)、LTS、房东PC、房东APP、官网、租客APP、支付、微信服务窗</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -972,17 +980,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.5" style="14" customWidth="1"/>
     <col min="2" max="2" width="52.875" style="15" customWidth="1"/>
@@ -1007,7 +1015,7 @@
     <col min="21" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="27.75" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1066,7 +1074,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" ht="49.5">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -1101,15 +1109,21 @@
       <c r="L2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="12"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="12"/>
+      <c r="M2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="11">
+        <v>42652</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>27</v>
+      </c>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
       <c r="S2" s="4"/>
     </row>
-    <row r="3" spans="1:20" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:20" s="25" customFormat="1" ht="16.5">
       <c r="A3" s="16"/>
       <c r="B3" s="22"/>
       <c r="C3" s="10"/>
@@ -1131,7 +1145,7 @@
       <c r="S3" s="12"/>
       <c r="T3" s="24"/>
     </row>
-    <row r="4" spans="1:20" s="9" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20" s="9" customFormat="1" ht="32.25" customHeight="1">
       <c r="A4" s="16"/>
       <c r="B4" s="19"/>
       <c r="C4" s="10"/>
@@ -1153,7 +1167,7 @@
       <c r="S4" s="13"/>
       <c r="T4" s="8"/>
     </row>
-    <row r="5" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:20" ht="16.5">
       <c r="A5" s="16"/>
       <c r="B5" s="19"/>
       <c r="C5" s="10"/>
@@ -1174,7 +1188,7 @@
       <c r="R5" s="7"/>
       <c r="S5" s="4"/>
     </row>
-    <row r="6" spans="1:20" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:20" s="25" customFormat="1" ht="16.5">
       <c r="A6" s="16"/>
       <c r="B6" s="22"/>
       <c r="C6" s="10"/>
@@ -1196,7 +1210,7 @@
       <c r="S6" s="12"/>
       <c r="T6" s="24"/>
     </row>
-    <row r="7" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A7" s="16"/>
       <c r="B7" s="22"/>
       <c r="C7" s="10"/>
@@ -1218,7 +1232,7 @@
       <c r="S7" s="13"/>
       <c r="T7" s="8"/>
     </row>
-    <row r="8" spans="1:20" s="57" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:20" s="57" customFormat="1" ht="16.5">
       <c r="A8" s="16"/>
       <c r="B8" s="50"/>
       <c r="C8" s="51"/>
@@ -1240,7 +1254,7 @@
       <c r="S8" s="55"/>
       <c r="T8" s="56"/>
     </row>
-    <row r="9" spans="1:20" s="57" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:20" s="57" customFormat="1" ht="17.25" customHeight="1">
       <c r="A9" s="16"/>
       <c r="B9" s="50"/>
       <c r="C9" s="51"/>
@@ -1262,7 +1276,7 @@
       <c r="S9" s="55"/>
       <c r="T9" s="56"/>
     </row>
-    <row r="10" spans="1:20" s="57" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:20" s="57" customFormat="1" ht="17.25" customHeight="1">
       <c r="A10" s="16"/>
       <c r="B10" s="50"/>
       <c r="C10" s="51"/>
@@ -1284,7 +1298,7 @@
       <c r="S10" s="55"/>
       <c r="T10" s="56"/>
     </row>
-    <row r="11" spans="1:20" s="57" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:20" s="57" customFormat="1" ht="17.25" customHeight="1">
       <c r="A11" s="16"/>
       <c r="B11" s="50"/>
       <c r="C11" s="51"/>
@@ -1306,7 +1320,7 @@
       <c r="S11" s="55"/>
       <c r="T11" s="56"/>
     </row>
-    <row r="12" spans="1:20" s="57" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:20" s="57" customFormat="1" ht="17.25" customHeight="1">
       <c r="A12" s="16"/>
       <c r="B12" s="50"/>
       <c r="C12" s="51"/>
@@ -1328,7 +1342,7 @@
       <c r="S12" s="55"/>
       <c r="T12" s="56"/>
     </row>
-    <row r="13" spans="1:20" s="57" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:20" s="57" customFormat="1" ht="17.25" customHeight="1">
       <c r="A13" s="16"/>
       <c r="B13" s="50"/>
       <c r="C13" s="51"/>
@@ -1350,7 +1364,7 @@
       <c r="S13" s="55"/>
       <c r="T13" s="56"/>
     </row>
-    <row r="14" spans="1:20" s="57" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:20" s="57" customFormat="1" ht="17.25" customHeight="1">
       <c r="A14" s="16"/>
       <c r="B14" s="50"/>
       <c r="C14" s="51"/>
@@ -1372,7 +1386,7 @@
       <c r="S14" s="55"/>
       <c r="T14" s="56"/>
     </row>
-    <row r="15" spans="1:20" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:20" s="59" customFormat="1" ht="16.5">
       <c r="A15" s="16"/>
       <c r="C15" s="51"/>
       <c r="D15" s="51"/>
@@ -1389,7 +1403,7 @@
       <c r="O15" s="51"/>
       <c r="P15" s="58"/>
     </row>
-    <row r="16" spans="1:20" s="9" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:20" s="9" customFormat="1" ht="32.25" customHeight="1">
       <c r="A16" s="16"/>
       <c r="B16" s="19"/>
       <c r="C16" s="10"/>
@@ -1411,7 +1425,7 @@
       <c r="S16" s="13"/>
       <c r="T16" s="8"/>
     </row>
-    <row r="17" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A17" s="16"/>
       <c r="B17" s="21"/>
       <c r="C17" s="10"/>
@@ -1433,7 +1447,7 @@
       <c r="S17" s="13"/>
       <c r="T17" s="8"/>
     </row>
-    <row r="18" spans="1:20" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:20" s="25" customFormat="1" ht="16.5">
       <c r="A18" s="16"/>
       <c r="B18" s="22"/>
       <c r="C18" s="10"/>
@@ -1455,7 +1469,7 @@
       <c r="S18" s="12"/>
       <c r="T18" s="24"/>
     </row>
-    <row r="19" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A19" s="16"/>
       <c r="B19" s="22"/>
       <c r="C19" s="10"/>
@@ -1477,7 +1491,7 @@
       <c r="S19" s="13"/>
       <c r="T19" s="8"/>
     </row>
-    <row r="20" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A20" s="16"/>
       <c r="B20" s="22"/>
       <c r="C20" s="10"/>
@@ -1499,7 +1513,7 @@
       <c r="S20" s="13"/>
       <c r="T20" s="8"/>
     </row>
-    <row r="21" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A21" s="16"/>
       <c r="B21" s="22"/>
       <c r="C21" s="10"/>
@@ -1521,7 +1535,7 @@
       <c r="S21" s="13"/>
       <c r="T21" s="8"/>
     </row>
-    <row r="22" spans="1:20" s="9" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:20" s="9" customFormat="1" ht="17.25" customHeight="1">
       <c r="A22" s="16"/>
       <c r="B22" s="22"/>
       <c r="C22" s="10"/>
@@ -1543,7 +1557,7 @@
       <c r="S22" s="13"/>
       <c r="T22" s="8"/>
     </row>
-    <row r="23" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A23" s="16"/>
       <c r="B23" s="22"/>
       <c r="C23" s="10"/>
@@ -1565,7 +1579,7 @@
       <c r="S23" s="13"/>
       <c r="T23" s="8"/>
     </row>
-    <row r="24" spans="1:20" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:20" s="31" customFormat="1" ht="16.5">
       <c r="A24" s="16"/>
       <c r="B24" s="22"/>
       <c r="C24" s="10"/>
@@ -1587,7 +1601,7 @@
       <c r="S24" s="29"/>
       <c r="T24" s="30"/>
     </row>
-    <row r="25" spans="1:20" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:20" s="31" customFormat="1" ht="16.5">
       <c r="A25" s="16"/>
       <c r="B25" s="22"/>
       <c r="C25" s="10"/>
@@ -1609,7 +1623,7 @@
       <c r="S25" s="29"/>
       <c r="T25" s="30"/>
     </row>
-    <row r="26" spans="1:20" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:20" s="31" customFormat="1" ht="16.5">
       <c r="A26" s="16"/>
       <c r="B26" s="22"/>
       <c r="C26" s="10"/>
@@ -1631,7 +1645,7 @@
       <c r="S26" s="29"/>
       <c r="T26" s="30"/>
     </row>
-    <row r="27" spans="1:20" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:20" s="31" customFormat="1" ht="16.5">
       <c r="A27" s="16"/>
       <c r="B27" s="22"/>
       <c r="C27" s="10"/>
@@ -1653,7 +1667,7 @@
       <c r="S27" s="29"/>
       <c r="T27" s="30"/>
     </row>
-    <row r="28" spans="1:20" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:20" s="31" customFormat="1" ht="16.5">
       <c r="A28" s="16"/>
       <c r="B28" s="22"/>
       <c r="C28" s="10"/>
@@ -1675,7 +1689,7 @@
       <c r="S28" s="29"/>
       <c r="T28" s="30"/>
     </row>
-    <row r="29" spans="1:20" s="31" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:20" s="31" customFormat="1" ht="18.75" customHeight="1">
       <c r="A29" s="16"/>
       <c r="B29" s="34"/>
       <c r="C29" s="10"/>
@@ -1697,7 +1711,7 @@
       <c r="S29" s="29"/>
       <c r="T29" s="30"/>
     </row>
-    <row r="30" spans="1:20" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:20" s="31" customFormat="1" ht="16.5">
       <c r="A30" s="16"/>
       <c r="B30" s="34"/>
       <c r="C30" s="10"/>
@@ -1719,7 +1733,7 @@
       <c r="S30" s="29"/>
       <c r="T30" s="30"/>
     </row>
-    <row r="31" spans="1:20" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:20" s="31" customFormat="1" ht="16.5">
       <c r="A31" s="16"/>
       <c r="B31" s="34"/>
       <c r="C31" s="10"/>
@@ -1741,7 +1755,7 @@
       <c r="S31" s="29"/>
       <c r="T31" s="30"/>
     </row>
-    <row r="32" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A32" s="16"/>
       <c r="B32" s="21"/>
       <c r="C32" s="10"/>
@@ -1763,7 +1777,7 @@
       <c r="S32" s="13"/>
       <c r="T32" s="8"/>
     </row>
-    <row r="33" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A33" s="16"/>
       <c r="B33" s="21"/>
       <c r="C33" s="10"/>
@@ -1785,7 +1799,7 @@
       <c r="S33" s="13"/>
       <c r="T33" s="8"/>
     </row>
-    <row r="34" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A34" s="16"/>
       <c r="B34" s="21"/>
       <c r="C34" s="10"/>
@@ -1807,7 +1821,7 @@
       <c r="S34" s="13"/>
       <c r="T34" s="8"/>
     </row>
-    <row r="35" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A35" s="16"/>
       <c r="B35" s="21"/>
       <c r="C35" s="10"/>
@@ -1829,7 +1843,7 @@
       <c r="S35" s="13"/>
       <c r="T35" s="8"/>
     </row>
-    <row r="36" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A36" s="16"/>
       <c r="B36" s="21"/>
       <c r="C36" s="10"/>
@@ -1851,7 +1865,7 @@
       <c r="S36" s="13"/>
       <c r="T36" s="8"/>
     </row>
-    <row r="37" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A37" s="16"/>
       <c r="B37" s="21"/>
       <c r="C37" s="10"/>
@@ -1873,7 +1887,7 @@
       <c r="S37" s="13"/>
       <c r="T37" s="8"/>
     </row>
-    <row r="38" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A38" s="16"/>
       <c r="B38" s="21"/>
       <c r="C38" s="10"/>
@@ -1895,7 +1909,7 @@
       <c r="S38" s="13"/>
       <c r="T38" s="8"/>
     </row>
-    <row r="39" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A39" s="16"/>
       <c r="B39" s="21"/>
       <c r="C39" s="46"/>
@@ -1917,7 +1931,7 @@
       <c r="S39" s="13"/>
       <c r="T39" s="8"/>
     </row>
-    <row r="40" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A40" s="16"/>
       <c r="B40" s="21"/>
       <c r="C40" s="46"/>
@@ -1939,7 +1953,7 @@
       <c r="S40" s="13"/>
       <c r="T40" s="8"/>
     </row>
-    <row r="41" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A41" s="16"/>
       <c r="B41" s="21"/>
       <c r="C41" s="10"/>
@@ -1961,7 +1975,7 @@
       <c r="S41" s="13"/>
       <c r="T41" s="8"/>
     </row>
-    <row r="42" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A42" s="16"/>
       <c r="B42" s="36"/>
       <c r="C42" s="10"/>
@@ -1983,7 +1997,7 @@
       <c r="S42" s="13"/>
       <c r="T42" s="8"/>
     </row>
-    <row r="43" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A43" s="16"/>
       <c r="B43" s="36"/>
       <c r="C43" s="10"/>
@@ -2005,7 +2019,7 @@
       <c r="S43" s="13"/>
       <c r="T43" s="8"/>
     </row>
-    <row r="44" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A44" s="16"/>
       <c r="B44" s="36"/>
       <c r="C44" s="10"/>
@@ -2027,7 +2041,7 @@
       <c r="S44" s="13"/>
       <c r="T44" s="8"/>
     </row>
-    <row r="45" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A45" s="16"/>
       <c r="B45" s="36"/>
       <c r="C45" s="10"/>
@@ -2049,7 +2063,7 @@
       <c r="S45" s="13"/>
       <c r="T45" s="8"/>
     </row>
-    <row r="46" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A46" s="16"/>
       <c r="B46" s="38"/>
       <c r="C46" s="10"/>
@@ -2071,7 +2085,7 @@
       <c r="S46" s="13"/>
       <c r="T46" s="8"/>
     </row>
-    <row r="47" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A47" s="16"/>
       <c r="B47" s="38"/>
       <c r="C47" s="10"/>
@@ -2093,7 +2107,7 @@
       <c r="S47" s="13"/>
       <c r="T47" s="8"/>
     </row>
-    <row r="48" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A48" s="16"/>
       <c r="B48" s="39"/>
       <c r="C48" s="10"/>
@@ -2115,7 +2129,7 @@
       <c r="S48" s="13"/>
       <c r="T48" s="8"/>
     </row>
-    <row r="49" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A49" s="16"/>
       <c r="B49" s="39"/>
       <c r="C49" s="10"/>
@@ -2137,7 +2151,7 @@
       <c r="S49" s="13"/>
       <c r="T49" s="8"/>
     </row>
-    <row r="50" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A50" s="16"/>
       <c r="B50" s="39"/>
       <c r="C50" s="10"/>
@@ -2159,7 +2173,7 @@
       <c r="S50" s="13"/>
       <c r="T50" s="8"/>
     </row>
-    <row r="51" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A51" s="16"/>
       <c r="B51" s="40"/>
       <c r="C51" s="10"/>
@@ -2181,7 +2195,7 @@
       <c r="S51" s="13"/>
       <c r="T51" s="8"/>
     </row>
-    <row r="52" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A52" s="16"/>
       <c r="B52" s="41"/>
       <c r="C52" s="10"/>
@@ -2203,7 +2217,7 @@
       <c r="S52" s="13"/>
       <c r="T52" s="8"/>
     </row>
-    <row r="53" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A53" s="16"/>
       <c r="B53" s="42"/>
       <c r="C53" s="10"/>
@@ -2225,7 +2239,7 @@
       <c r="S53" s="13"/>
       <c r="T53" s="8"/>
     </row>
-    <row r="54" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A54" s="16"/>
       <c r="B54" s="43"/>
       <c r="C54" s="10"/>
@@ -2247,7 +2261,7 @@
       <c r="S54" s="13"/>
       <c r="T54" s="8"/>
     </row>
-    <row r="55" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A55" s="16"/>
       <c r="B55" s="43"/>
       <c r="C55" s="10"/>
@@ -2269,7 +2283,7 @@
       <c r="S55" s="13"/>
       <c r="T55" s="8"/>
     </row>
-    <row r="56" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A56" s="16"/>
       <c r="B56" s="44"/>
       <c r="C56" s="10"/>
@@ -2291,7 +2305,7 @@
       <c r="S56" s="13"/>
       <c r="T56" s="8"/>
     </row>
-    <row r="57" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A57" s="16"/>
       <c r="B57" s="42"/>
       <c r="C57" s="10"/>
@@ -2313,7 +2327,7 @@
       <c r="S57" s="13"/>
       <c r="T57" s="8"/>
     </row>
-    <row r="58" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A58" s="16"/>
       <c r="B58" s="45"/>
       <c r="C58" s="10"/>
@@ -2335,7 +2349,7 @@
       <c r="S58" s="13"/>
       <c r="T58" s="8"/>
     </row>
-    <row r="59" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A59" s="16"/>
       <c r="B59" s="44"/>
       <c r="C59" s="10"/>
@@ -2357,7 +2371,7 @@
       <c r="S59" s="13"/>
       <c r="T59" s="8"/>
     </row>
-    <row r="60" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A60" s="16"/>
       <c r="B60" s="42"/>
       <c r="C60" s="10"/>
@@ -2379,7 +2393,7 @@
       <c r="S60" s="13"/>
       <c r="T60" s="8"/>
     </row>
-    <row r="61" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A61" s="16"/>
       <c r="B61" s="42"/>
       <c r="C61" s="10"/>
@@ -2401,7 +2415,7 @@
       <c r="S61" s="13"/>
       <c r="T61" s="8"/>
     </row>
-    <row r="62" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A62" s="16"/>
       <c r="B62" s="42"/>
       <c r="C62" s="10"/>
@@ -2423,7 +2437,7 @@
       <c r="S62" s="13"/>
       <c r="T62" s="8"/>
     </row>
-    <row r="63" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A63" s="16"/>
       <c r="B63" s="42"/>
       <c r="C63" s="10"/>
@@ -2445,7 +2459,7 @@
       <c r="S63" s="13"/>
       <c r="T63" s="8"/>
     </row>
-    <row r="64" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A64" s="16"/>
       <c r="B64" s="42"/>
       <c r="C64" s="10"/>
@@ -2467,7 +2481,7 @@
       <c r="S64" s="13"/>
       <c r="T64" s="8"/>
     </row>
-    <row r="65" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A65" s="16"/>
       <c r="B65" s="42"/>
       <c r="C65" s="10"/>
@@ -2489,7 +2503,7 @@
       <c r="S65" s="13"/>
       <c r="T65" s="8"/>
     </row>
-    <row r="66" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A66" s="16"/>
       <c r="B66" s="42"/>
       <c r="C66" s="10"/>
@@ -2511,7 +2525,7 @@
       <c r="S66" s="13"/>
       <c r="T66" s="8"/>
     </row>
-    <row r="67" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A67" s="16"/>
       <c r="B67" s="42"/>
       <c r="C67" s="10"/>
@@ -2533,7 +2547,7 @@
       <c r="S67" s="13"/>
       <c r="T67" s="8"/>
     </row>
-    <row r="68" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A68" s="16"/>
       <c r="B68" s="42"/>
       <c r="C68" s="10"/>
@@ -2555,7 +2569,7 @@
       <c r="S68" s="13"/>
       <c r="T68" s="8"/>
     </row>
-    <row r="69" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A69" s="16"/>
       <c r="B69" s="42"/>
       <c r="C69" s="10"/>
@@ -2577,7 +2591,7 @@
       <c r="S69" s="13"/>
       <c r="T69" s="8"/>
     </row>
-    <row r="70" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A70" s="16"/>
       <c r="B70" s="42"/>
       <c r="C70" s="10"/>
@@ -2599,7 +2613,7 @@
       <c r="S70" s="13"/>
       <c r="T70" s="8"/>
     </row>
-    <row r="71" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A71" s="16"/>
       <c r="B71" s="42"/>
       <c r="C71" s="10"/>
@@ -2621,7 +2635,7 @@
       <c r="S71" s="13"/>
       <c r="T71" s="8"/>
     </row>
-    <row r="72" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A72" s="16"/>
       <c r="B72" s="42"/>
       <c r="C72" s="10"/>
@@ -2643,7 +2657,7 @@
       <c r="S72" s="13"/>
       <c r="T72" s="8"/>
     </row>
-    <row r="73" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A73" s="16"/>
       <c r="B73" s="42"/>
       <c r="C73" s="10"/>
@@ -2665,7 +2679,7 @@
       <c r="S73" s="13"/>
       <c r="T73" s="8"/>
     </row>
-    <row r="74" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A74" s="16"/>
       <c r="B74" s="42"/>
       <c r="C74" s="10"/>
@@ -2687,7 +2701,7 @@
       <c r="S74" s="13"/>
       <c r="T74" s="8"/>
     </row>
-    <row r="75" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A75" s="16"/>
       <c r="B75" s="42"/>
       <c r="C75" s="10"/>
@@ -2709,7 +2723,7 @@
       <c r="S75" s="13"/>
       <c r="T75" s="8"/>
     </row>
-    <row r="76" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A76" s="16"/>
       <c r="B76" s="42"/>
       <c r="C76" s="10"/>
@@ -2731,7 +2745,7 @@
       <c r="S76" s="13"/>
       <c r="T76" s="8"/>
     </row>
-    <row r="77" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A77" s="16"/>
       <c r="B77" s="42"/>
       <c r="C77" s="10"/>
@@ -2753,7 +2767,7 @@
       <c r="S77" s="13"/>
       <c r="T77" s="8"/>
     </row>
-    <row r="78" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A78" s="16"/>
       <c r="B78" s="42"/>
       <c r="C78" s="10"/>
@@ -2775,7 +2789,7 @@
       <c r="S78" s="13"/>
       <c r="T78" s="8"/>
     </row>
-    <row r="79" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A79" s="16"/>
       <c r="B79" s="42"/>
       <c r="C79" s="10"/>
@@ -2797,7 +2811,7 @@
       <c r="S79" s="13"/>
       <c r="T79" s="8"/>
     </row>
-    <row r="80" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A80" s="16"/>
       <c r="B80" s="42"/>
       <c r="C80" s="10"/>
@@ -2819,7 +2833,7 @@
       <c r="S80" s="13"/>
       <c r="T80" s="8"/>
     </row>
-    <row r="81" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A81" s="16"/>
       <c r="B81" s="42"/>
       <c r="C81" s="10"/>
@@ -2841,7 +2855,7 @@
       <c r="S81" s="13"/>
       <c r="T81" s="8"/>
     </row>
-    <row r="82" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A82" s="16"/>
       <c r="B82" s="42"/>
       <c r="C82" s="10"/>
@@ -2863,7 +2877,7 @@
       <c r="S82" s="13"/>
       <c r="T82" s="8"/>
     </row>
-    <row r="83" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A83" s="16"/>
       <c r="B83" s="42"/>
       <c r="C83" s="10"/>
@@ -2885,7 +2899,7 @@
       <c r="S83" s="13"/>
       <c r="T83" s="8"/>
     </row>
-    <row r="84" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A84" s="16"/>
       <c r="B84" s="42"/>
       <c r="C84" s="10"/>
@@ -2907,7 +2921,7 @@
       <c r="S84" s="13"/>
       <c r="T84" s="8"/>
     </row>
-    <row r="85" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A85" s="16"/>
       <c r="B85" s="42"/>
       <c r="C85" s="10"/>
@@ -2929,7 +2943,7 @@
       <c r="S85" s="13"/>
       <c r="T85" s="8"/>
     </row>
-    <row r="86" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A86" s="16"/>
       <c r="B86" s="42"/>
       <c r="C86" s="10"/>
@@ -2951,7 +2965,7 @@
       <c r="S86" s="13"/>
       <c r="T86" s="8"/>
     </row>
-    <row r="87" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A87" s="16"/>
       <c r="B87" s="42"/>
       <c r="C87" s="10"/>
@@ -2973,7 +2987,7 @@
       <c r="S87" s="13"/>
       <c r="T87" s="8"/>
     </row>
-    <row r="88" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A88" s="16"/>
       <c r="B88" s="42"/>
       <c r="C88" s="10"/>
@@ -2995,7 +3009,7 @@
       <c r="S88" s="13"/>
       <c r="T88" s="8"/>
     </row>
-    <row r="89" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A89" s="16"/>
       <c r="B89" s="42"/>
       <c r="C89" s="10"/>
@@ -3017,7 +3031,7 @@
       <c r="S89" s="13"/>
       <c r="T89" s="8"/>
     </row>
-    <row r="90" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A90" s="16"/>
       <c r="B90" s="42"/>
       <c r="C90" s="10"/>
@@ -3039,7 +3053,7 @@
       <c r="S90" s="13"/>
       <c r="T90" s="8"/>
     </row>
-    <row r="91" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A91" s="16"/>
       <c r="B91" s="21"/>
       <c r="C91" s="10"/>
@@ -3061,7 +3075,7 @@
       <c r="S91" s="13"/>
       <c r="T91" s="8"/>
     </row>
-    <row r="92" spans="1:20" s="25" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:20" s="25" customFormat="1" ht="27" customHeight="1">
       <c r="A92" s="16"/>
       <c r="B92" s="20"/>
       <c r="C92" s="10"/>
@@ -3083,7 +3097,7 @@
       <c r="S92" s="35"/>
       <c r="T92" s="24"/>
     </row>
-    <row r="93" spans="1:20" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:20" s="9" customFormat="1" ht="27" customHeight="1">
       <c r="A93" s="16"/>
       <c r="B93" s="21"/>
       <c r="C93" s="10"/>
@@ -3105,7 +3119,7 @@
       <c r="S93" s="35"/>
       <c r="T93" s="8"/>
     </row>
-    <row r="94" spans="1:20" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:20" s="9" customFormat="1" ht="27" customHeight="1">
       <c r="A94" s="16"/>
       <c r="B94" s="21"/>
       <c r="C94" s="10"/>
@@ -3127,7 +3141,7 @@
       <c r="S94" s="13"/>
       <c r="T94" s="8"/>
     </row>
-    <row r="95" spans="1:20" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:20" s="9" customFormat="1" ht="27" customHeight="1">
       <c r="A95" s="16"/>
       <c r="B95" s="21"/>
       <c r="C95" s="10"/>
@@ -3149,7 +3163,7 @@
       <c r="S95" s="13"/>
       <c r="T95" s="8"/>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:20">
       <c r="A96" s="7"/>
       <c r="B96" s="4"/>
       <c r="C96" s="7"/>
@@ -3170,7 +3184,7 @@
       <c r="R96" s="7"/>
       <c r="S96" s="4"/>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:19">
       <c r="A97" s="7"/>
       <c r="B97" s="4"/>
       <c r="C97" s="7"/>
@@ -3191,7 +3205,7 @@
       <c r="R97" s="7"/>
       <c r="S97" s="4"/>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:19">
       <c r="A98" s="7"/>
       <c r="B98" s="4"/>
       <c r="C98" s="7"/>
@@ -3212,7 +3226,7 @@
       <c r="R98" s="7"/>
       <c r="S98" s="4"/>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:19">
       <c r="A99" s="7"/>
       <c r="B99" s="4"/>
       <c r="C99" s="7"/>
@@ -3233,7 +3247,7 @@
       <c r="R99" s="7"/>
       <c r="S99" s="4"/>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:19">
       <c r="A100" s="7"/>
       <c r="B100" s="4"/>
       <c r="C100" s="7"/>
@@ -3254,7 +3268,7 @@
       <c r="R100" s="7"/>
       <c r="S100" s="4"/>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:19">
       <c r="A101" s="7"/>
       <c r="B101" s="4"/>
       <c r="C101" s="7"/>
@@ -3275,7 +3289,7 @@
       <c r="R101" s="7"/>
       <c r="S101" s="4"/>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:19">
       <c r="A102" s="7"/>
       <c r="B102" s="4"/>
       <c r="C102" s="7"/>
@@ -3296,7 +3310,7 @@
       <c r="R102" s="7"/>
       <c r="S102" s="4"/>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:19">
       <c r="A103" s="7"/>
       <c r="B103" s="4"/>
       <c r="C103" s="7"/>
@@ -3317,7 +3331,7 @@
       <c r="R103" s="7"/>
       <c r="S103" s="4"/>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:19">
       <c r="A104" s="7"/>
       <c r="B104" s="4"/>
       <c r="C104" s="7"/>
@@ -3338,7 +3352,7 @@
       <c r="R104" s="7"/>
       <c r="S104" s="4"/>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:19">
       <c r="A105" s="7"/>
       <c r="B105" s="4"/>
       <c r="C105" s="7"/>
@@ -3359,7 +3373,7 @@
       <c r="R105" s="7"/>
       <c r="S105" s="4"/>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:19">
       <c r="A106" s="7"/>
       <c r="B106" s="4"/>
       <c r="C106" s="7"/>
@@ -3380,7 +3394,7 @@
       <c r="R106" s="7"/>
       <c r="S106" s="4"/>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:19">
       <c r="A107" s="7"/>
       <c r="B107" s="4"/>
       <c r="C107" s="7"/>
@@ -3401,7 +3415,7 @@
       <c r="R107" s="7"/>
       <c r="S107" s="4"/>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:19">
       <c r="A108" s="7"/>
       <c r="B108" s="4"/>
       <c r="C108" s="7"/>
@@ -3422,7 +3436,7 @@
       <c r="R108" s="7"/>
       <c r="S108" s="4"/>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:19">
       <c r="A109" s="7"/>
       <c r="B109" s="4"/>
       <c r="C109" s="7"/>
@@ -3443,7 +3457,7 @@
       <c r="R109" s="7"/>
       <c r="S109" s="4"/>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:19">
       <c r="A110" s="7"/>
       <c r="B110" s="4"/>
       <c r="C110" s="7"/>
@@ -3464,7 +3478,7 @@
       <c r="R110" s="7"/>
       <c r="S110" s="4"/>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:19">
       <c r="A111" s="7"/>
       <c r="B111" s="4"/>
       <c r="C111" s="7"/>
@@ -3485,7 +3499,7 @@
       <c r="R111" s="7"/>
       <c r="S111" s="4"/>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:19">
       <c r="A112" s="7"/>
       <c r="B112" s="4"/>
       <c r="C112" s="7"/>
@@ -3506,7 +3520,7 @@
       <c r="R112" s="7"/>
       <c r="S112" s="4"/>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:19">
       <c r="A113" s="7"/>
       <c r="B113" s="4"/>
       <c r="C113" s="7"/>
@@ -3527,7 +3541,7 @@
       <c r="R113" s="7"/>
       <c r="S113" s="4"/>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:19">
       <c r="A114" s="7"/>
       <c r="B114" s="4"/>
       <c r="C114" s="7"/>
@@ -3548,7 +3562,7 @@
       <c r="R114" s="7"/>
       <c r="S114" s="4"/>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:19">
       <c r="A115" s="7"/>
       <c r="B115" s="4"/>
       <c r="C115" s="7"/>
@@ -3569,7 +3583,7 @@
       <c r="R115" s="7"/>
       <c r="S115" s="4"/>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:19">
       <c r="A116" s="7"/>
       <c r="B116" s="4"/>
       <c r="C116" s="7"/>
@@ -3590,7 +3604,7 @@
       <c r="R116" s="7"/>
       <c r="S116" s="4"/>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:19">
       <c r="A117" s="7"/>
       <c r="B117" s="4"/>
       <c r="C117" s="7"/>
@@ -3608,7 +3622,7 @@
       <c r="O117" s="4"/>
       <c r="S117" s="4"/>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:19">
       <c r="A118" s="7"/>
       <c r="B118" s="4"/>
       <c r="C118" s="7"/>
@@ -3626,7 +3640,7 @@
       <c r="O118" s="4"/>
       <c r="S118" s="4"/>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:19">
       <c r="A119" s="7"/>
       <c r="B119" s="4"/>
       <c r="C119" s="7"/>
@@ -3644,7 +3658,7 @@
       <c r="O119" s="4"/>
       <c r="S119" s="4"/>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:19">
       <c r="A120" s="7"/>
       <c r="B120" s="4"/>
       <c r="C120" s="7"/>
@@ -3662,7 +3676,7 @@
       <c r="O120" s="4"/>
       <c r="S120" s="4"/>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:19">
       <c r="A121" s="7"/>
       <c r="B121" s="4"/>
       <c r="C121" s="7"/>
@@ -3680,7 +3694,7 @@
       <c r="O121" s="4"/>
       <c r="S121" s="4"/>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:19">
       <c r="A122" s="7"/>
       <c r="B122" s="4"/>
       <c r="C122" s="7"/>
@@ -3698,7 +3712,7 @@
       <c r="O122" s="4"/>
       <c r="S122" s="4"/>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:19">
       <c r="A123" s="7"/>
       <c r="B123" s="4"/>
       <c r="C123" s="7"/>
@@ -3716,7 +3730,7 @@
       <c r="O123" s="4"/>
       <c r="S123" s="4"/>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:19">
       <c r="A124" s="7"/>
       <c r="B124" s="4"/>
       <c r="C124" s="7"/>
@@ -3734,7 +3748,7 @@
       <c r="O124" s="4"/>
       <c r="S124" s="4"/>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:19">
       <c r="A125" s="7"/>
       <c r="B125" s="4"/>
       <c r="C125" s="7"/>
@@ -3752,7 +3766,7 @@
       <c r="O125" s="4"/>
       <c r="S125" s="4"/>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:19">
       <c r="A126" s="7"/>
       <c r="B126" s="4"/>
       <c r="C126" s="7"/>
@@ -3770,7 +3784,7 @@
       <c r="O126" s="4"/>
       <c r="S126" s="4"/>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:19">
       <c r="A127" s="7"/>
       <c r="B127" s="4"/>
       <c r="C127" s="7"/>
@@ -3788,7 +3802,7 @@
       <c r="O127" s="4"/>
       <c r="S127" s="4"/>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:19">
       <c r="A128" s="7"/>
       <c r="B128" s="4"/>
       <c r="C128" s="7"/>
@@ -3806,7 +3820,7 @@
       <c r="O128" s="4"/>
       <c r="S128" s="4"/>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:19">
       <c r="A129" s="7"/>
       <c r="B129" s="4"/>
       <c r="C129" s="7"/>
@@ -3824,7 +3838,7 @@
       <c r="O129" s="4"/>
       <c r="S129" s="4"/>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:19">
       <c r="A130" s="7"/>
       <c r="B130" s="4"/>
       <c r="C130" s="7"/>
@@ -3842,7 +3856,7 @@
       <c r="O130" s="4"/>
       <c r="S130" s="4"/>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:19">
       <c r="A131" s="7"/>
       <c r="B131" s="4"/>
       <c r="C131" s="7"/>
@@ -3860,7 +3874,7 @@
       <c r="O131" s="4"/>
       <c r="S131" s="4"/>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:19">
       <c r="A132" s="7"/>
       <c r="B132" s="4"/>
       <c r="C132" s="7"/>
@@ -3878,7 +3892,7 @@
       <c r="O132" s="4"/>
       <c r="S132" s="4"/>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:19">
       <c r="A133" s="7"/>
       <c r="B133" s="4"/>
       <c r="C133" s="7"/>
@@ -3896,7 +3910,7 @@
       <c r="O133" s="4"/>
       <c r="S133" s="4"/>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:19">
       <c r="A134" s="7"/>
       <c r="B134" s="4"/>
       <c r="C134" s="7"/>
@@ -3914,7 +3928,7 @@
       <c r="O134" s="4"/>
       <c r="S134" s="4"/>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:19">
       <c r="A135" s="7"/>
       <c r="B135" s="4"/>
       <c r="C135" s="7"/>
@@ -3932,7 +3946,7 @@
       <c r="O135" s="4"/>
       <c r="S135" s="4"/>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:19">
       <c r="A136" s="7"/>
       <c r="B136" s="4"/>
       <c r="C136" s="7"/>
@@ -3950,7 +3964,7 @@
       <c r="O136" s="4"/>
       <c r="S136" s="4"/>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:19">
       <c r="A137" s="7"/>
       <c r="B137" s="4"/>
       <c r="C137" s="7"/>
@@ -3968,7 +3982,7 @@
       <c r="O137" s="4"/>
       <c r="S137" s="4"/>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:19">
       <c r="A138" s="7"/>
       <c r="B138" s="4"/>
       <c r="C138" s="7"/>
@@ -3986,7 +4000,7 @@
       <c r="O138" s="4"/>
       <c r="S138" s="4"/>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:19">
       <c r="A139" s="7"/>
       <c r="B139" s="4"/>
       <c r="C139" s="7"/>
@@ -4004,7 +4018,7 @@
       <c r="O139" s="4"/>
       <c r="S139" s="4"/>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:19">
       <c r="A140" s="7"/>
       <c r="B140" s="4"/>
       <c r="C140" s="7"/>
@@ -4022,7 +4036,7 @@
       <c r="O140" s="4"/>
       <c r="S140" s="4"/>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:19">
       <c r="A141" s="7"/>
       <c r="B141" s="4"/>
       <c r="C141" s="7"/>
@@ -4040,7 +4054,7 @@
       <c r="O141" s="4"/>
       <c r="S141" s="4"/>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:19">
       <c r="A142" s="7"/>
       <c r="B142" s="4"/>
       <c r="C142" s="7"/>
@@ -4058,7 +4072,7 @@
       <c r="O142" s="4"/>
       <c r="S142" s="4"/>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:19">
       <c r="A143" s="7"/>
       <c r="B143" s="4"/>
       <c r="C143" s="7"/>
@@ -4076,7 +4090,7 @@
       <c r="O143" s="4"/>
       <c r="S143" s="4"/>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:19">
       <c r="A144" s="7"/>
       <c r="B144" s="4"/>
       <c r="C144" s="7"/>
@@ -4094,7 +4108,7 @@
       <c r="O144" s="4"/>
       <c r="S144" s="4"/>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:19">
       <c r="A145" s="7"/>
       <c r="B145" s="4"/>
       <c r="C145" s="7"/>
@@ -4112,7 +4126,7 @@
       <c r="O145" s="4"/>
       <c r="S145" s="4"/>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:19">
       <c r="A146" s="7"/>
       <c r="B146" s="4"/>
       <c r="C146" s="7"/>
@@ -4130,7 +4144,7 @@
       <c r="O146" s="4"/>
       <c r="S146" s="4"/>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:19">
       <c r="A147" s="7"/>
       <c r="B147" s="4"/>
       <c r="C147" s="7"/>
@@ -4148,7 +4162,7 @@
       <c r="O147" s="4"/>
       <c r="S147" s="4"/>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:19">
       <c r="A148" s="7"/>
       <c r="B148" s="4"/>
       <c r="C148" s="7"/>
@@ -4166,7 +4180,7 @@
       <c r="O148" s="4"/>
       <c r="S148" s="4"/>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:19">
       <c r="A149" s="7"/>
       <c r="B149" s="4"/>
       <c r="C149" s="7"/>
@@ -4184,7 +4198,7 @@
       <c r="O149" s="4"/>
       <c r="S149" s="4"/>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:19">
       <c r="A150" s="7"/>
       <c r="B150" s="4"/>
       <c r="C150" s="7"/>
@@ -4202,7 +4216,7 @@
       <c r="O150" s="4"/>
       <c r="S150" s="4"/>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:19">
       <c r="A151" s="7"/>
       <c r="B151" s="4"/>
       <c r="C151" s="7"/>

--- a/VersionRecords/Version 5.0.2.6 20161009/版本Bug和特性计划及评审表v5.0.2.6_架构组.xlsx
+++ b/VersionRecords/Version 5.0.2.6 20161009/版本Bug和特性计划及评审表v5.0.2.6_架构组.xlsx
@@ -416,7 +416,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -441,8 +441,12 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -626,8 +630,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="10" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="11">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="6"/>
     <cellStyle name="常规 3" xfId="1"/>
@@ -636,6 +643,7 @@
     <cellStyle name="常规 6" xfId="2"/>
     <cellStyle name="常规 9" xfId="4"/>
     <cellStyle name="超链接" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
     <cellStyle name="甘特图" xfId="3"/>
     <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
   </cellStyles>
@@ -984,10 +992,10 @@
   <dimension ref="A1:T151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1118,7 +1126,9 @@
       <c r="O2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="7"/>
+      <c r="P2" s="61">
+        <v>4041</v>
+      </c>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
       <c r="S2" s="4"/>
@@ -4236,7 +4246,10 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="P2" r:id="rId1" display="http://192.168.60.60:7086/www/index.php?m=bug&amp;f=view&amp;bugID=4041"/>
+  </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>